--- a/Projekt/Erlaubte Technologien.xlsx
+++ b/Projekt/Erlaubte Technologien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-2024-hs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B2FCF3-9EF3-4115-AFDB-06BB479724AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA3F1C-D6FF-45B3-A4D5-2D7CDE5A7E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15375" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,15 +71,9 @@
     <t>Kein JavaScript</t>
   </si>
   <si>
-    <t>Wenig, selber geschriebenes JavaScript</t>
-  </si>
-  <si>
     <t>Nicht erlaubt</t>
   </si>
   <si>
-    <t>JS Libraries wie Vue, Svelte, React, Angular</t>
-  </si>
-  <si>
     <t>Kotlin</t>
   </si>
   <si>
@@ -132,6 +126,15 @@
   </si>
   <si>
     <t>keine</t>
+  </si>
+  <si>
+    <t>- Selber geschriebenes JavaScript
+- JS Libraries zur Darstellung von Charts und Graphen (z.B. Cytosape.js)
+- JS Libraries zur Verwendung von WebSockets</t>
+  </si>
+  <si>
+    <t>- JS SPA-Libraries wie Vue, Svelte, React, Angular
+- Alles was einen Frontend-Build benötigt und nicht einfach direkt eingebunden werden kann.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -216,13 +219,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -572,15 +598,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -589,165 +616,165 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt/Erlaubte Technologien.xlsx
+++ b/Projekt/Erlaubte Technologien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-2024-hs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA3F1C-D6FF-45B3-A4D5-2D7CDE5A7E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0DBD80-782B-4864-8393-6151B08569ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15375" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -128,13 +128,14 @@
     <t>keine</t>
   </si>
   <si>
+    <t>- JS SPA-Libraries wie Vue, Svelte, React, Angular
+- Alles was einen Frontend-Build benötigt und nicht einfach direkt eingebunden werden kann.</t>
+  </si>
+  <si>
     <t>- Selber geschriebenes JavaScript
 - JS Libraries zur Darstellung von Charts und Graphen (z.B. Cytosape.js)
-- JS Libraries zur Verwendung von WebSockets</t>
-  </si>
-  <si>
-    <t>- JS SPA-Libraries wie Vue, Svelte, React, Angular
-- Alles was einen Frontend-Build benötigt und nicht einfach direkt eingebunden werden kann.</t>
+- JS Libraries zur Verwendung von WebSockets
+- JS Rich Text Editor (z.B. Quill)</t>
   </si>
 </sst>
 </file>
@@ -655,16 +656,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/Projekt/Erlaubte Technologien.xlsx
+++ b/Projekt/Erlaubte Technologien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-2024-hs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0DBD80-782B-4864-8393-6151B08569ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEDD17-9E8B-4BBE-A1D9-90F20CA1CE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9F9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEFBD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -199,8 +193,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,11 +208,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -223,31 +234,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -258,6 +272,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFB9B9"/>
+      <color rgb="FFFF8F8F"/>
       <color rgb="FFC4E59F"/>
       <color rgb="FFFFEFBD"/>
       <color rgb="FFFFE389"/>
@@ -595,186 +611,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7B0C79-0EFD-442A-87F9-28EEDD1CF9B5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Projekt/Erlaubte Technologien.xlsx
+++ b/Projekt/Erlaubte Technologien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-2024-hs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEDD17-9E8B-4BBE-A1D9-90F20CA1CE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5273C-771B-4448-9964-BD9BDC6AA6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>HS 2024 bei Adrian Herzog</t>
   </si>
@@ -136,6 +136,15 @@
 - JS Libraries zur Darstellung von Charts und Graphen (z.B. Cytosape.js)
 - JS Libraries zur Verwendung von WebSockets
 - JS Rich Text Editor (z.B. Quill)</t>
+  </si>
+  <si>
+    <t>Weiteres</t>
+  </si>
+  <si>
+    <t>Lombok für Java</t>
+  </si>
+  <si>
+    <t>GraphQL API konsumieren</t>
   </si>
 </sst>
 </file>
@@ -609,11 +618,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7B0C79-0EFD-442A-87F9-28EEDD1CF9B5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -798,6 +805,30 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projekt/Erlaubte Technologien.xlsx
+++ b/Projekt/Erlaubte Technologien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-2024-hs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5273C-771B-4448-9964-BD9BDC6AA6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65758EC-07B3-4064-8AFB-54A391C4AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>HS 2024 bei Adrian Herzog</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>GraphQL API konsumieren</t>
+  </si>
+  <si>
+    <t>Font Awesome Icons</t>
   </si>
 </sst>
 </file>
@@ -622,26 +625,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -653,13 +656,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
@@ -671,7 +674,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
@@ -683,7 +686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
@@ -695,13 +698,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
@@ -713,7 +716,7 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
         <v>3</v>
@@ -723,13 +726,13 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -741,13 +744,13 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
@@ -757,7 +760,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
@@ -767,13 +770,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -785,13 +788,13 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -805,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>32</v>
       </c>
@@ -815,7 +818,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
@@ -823,10 +826,12 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" s="10"/>
     </row>
   </sheetData>

--- a/Projekt/Erlaubte Technologien.xlsx
+++ b/Projekt/Erlaubte Technologien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-2024-hs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65758EC-07B3-4064-8AFB-54A391C4AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505286B-5295-4D06-B580-E2E808F25150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
   </bookViews>
@@ -132,22 +132,23 @@
 - Alles was einen Frontend-Build benötigt und nicht einfach direkt eingebunden werden kann.</t>
   </si>
   <si>
+    <t>Weiteres</t>
+  </si>
+  <si>
+    <t>Lombok für Java</t>
+  </si>
+  <si>
+    <t>GraphQL API konsumieren</t>
+  </si>
+  <si>
+    <t>Font Awesome Icons</t>
+  </si>
+  <si>
     <t>- Selber geschriebenes JavaScript
 - JS Libraries zur Darstellung von Charts und Graphen (z.B. Cytosape.js)
 - JS Libraries zur Verwendung von WebSockets
-- JS Rich Text Editor (z.B. Quill)</t>
-  </si>
-  <si>
-    <t>Weiteres</t>
-  </si>
-  <si>
-    <t>Lombok für Java</t>
-  </si>
-  <si>
-    <t>GraphQL API konsumieren</t>
-  </si>
-  <si>
-    <t>Font Awesome Icons</t>
+- JS Rich Text Editor (z.B. Quill)
+- Weitere spezifische Libraries (z.B. Tagify)</t>
   </si>
 </sst>
 </file>
@@ -686,13 +687,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>30</v>
@@ -810,11 +811,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
     </row>
@@ -822,7 +823,7 @@
       <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -830,7 +831,7 @@
       <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="10"/>
     </row>
